--- a/iselUssSyncV2/OutputWSL/20220517_1428_D60L474W90Q7.4U0.17H56.8G2_S_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1428_D60L474W90Q7.4U0.17H56.8G2_S_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>-106</v>
       </c>
       <c r="E2" s="0">
-        <v>58.003928571428553</v>
+        <v>59.061754658385077</v>
       </c>
       <c r="F2" s="0">
-        <v>57.986309523809531</v>
+        <v>59.041882646339175</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>-106</v>
       </c>
       <c r="E3" s="0">
-        <v>58.49896825396835</v>
+        <v>59.511119648390661</v>
       </c>
       <c r="F3" s="0">
-        <v>59.759087301587293</v>
+        <v>60.49474467210522</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>-106</v>
       </c>
       <c r="E4" s="0">
-        <v>57.584880952380978</v>
+        <v>56.952738095238118</v>
       </c>
       <c r="F4" s="0">
-        <v>60.923968253968212</v>
+        <v>59.405277777777734</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>-106</v>
       </c>
       <c r="E5" s="0">
-        <v>56.761111111111077</v>
+        <v>56.081788401947733</v>
       </c>
       <c r="F5" s="0">
-        <v>60.979246031746023</v>
+        <v>59.649006987921318</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>-106</v>
       </c>
       <c r="E6" s="0">
-        <v>55.724541832669303</v>
+        <v>54.923470404097877</v>
       </c>
       <c r="F6" s="0">
-        <v>61.451952191235009</v>
+        <v>59.035047429330248</v>
       </c>
     </row>
     <row r="7">
@@ -222,10 +222,10 @@
         <v>-106</v>
       </c>
       <c r="E7" s="0">
-        <v>53.350912698412657</v>
+        <v>53.153333333333293</v>
       </c>
       <c r="F7" s="0">
-        <v>61.38718253968257</v>
+        <v>59.550992063492096</v>
       </c>
     </row>
     <row r="8">
@@ -242,9 +242,11 @@
         <v>-106</v>
       </c>
       <c r="E8" s="0">
-        <v>49.504183266932273</v>
-      </c>
-      <c r="F8" s="0"/>
+        <v>49.303667393916399</v>
+      </c>
+      <c r="F8" s="0">
+        <v>64.92135458167327</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -260,9 +262,11 @@
         <v>-106</v>
       </c>
       <c r="E9" s="0">
-        <v>47.72154761904762</v>
-      </c>
-      <c r="F9" s="0"/>
+        <v>46.895555555555553</v>
+      </c>
+      <c r="F9" s="0">
+        <v>63.520833333333321</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -278,10 +282,10 @@
         <v>-106</v>
       </c>
       <c r="E10" s="0">
-        <v>46.827063492063473</v>
+        <v>45.748497755011677</v>
       </c>
       <c r="F10" s="0">
-        <v>43.649087301587301</v>
+        <v>40.95243391513312</v>
       </c>
     </row>
     <row r="11">
@@ -298,10 +302,10 @@
         <v>-106</v>
       </c>
       <c r="E11" s="0">
-        <v>46.57940239043824</v>
+        <v>45.511513944223104</v>
       </c>
       <c r="F11" s="0">
-        <v>43.170199203187252</v>
+        <v>40.480796812749006</v>
       </c>
     </row>
     <row r="12">
@@ -318,10 +322,10 @@
         <v>-106</v>
       </c>
       <c r="E12" s="0">
-        <v>46.997171314741045</v>
+        <v>46.820677290836663</v>
       </c>
       <c r="F12" s="0">
-        <v>42.794661354581677</v>
+        <v>40.141035856573708</v>
       </c>
     </row>
     <row r="13">
@@ -338,10 +342,10 @@
         <v>-106</v>
       </c>
       <c r="E13" s="0">
-        <v>47.572430278884468</v>
+        <v>46.496715993170184</v>
       </c>
       <c r="F13" s="0">
-        <v>43.192151394422325</v>
+        <v>40.49826250553344</v>
       </c>
     </row>
     <row r="14">
@@ -358,10 +362,10 @@
         <v>-106</v>
       </c>
       <c r="E14" s="0">
-        <v>47.645139442231091</v>
+        <v>46.599203187251014</v>
       </c>
       <c r="F14" s="0">
-        <v>43.470597609561736</v>
+        <v>40.803187250995997</v>
       </c>
     </row>
     <row r="15">
@@ -378,10 +382,10 @@
         <v>-106</v>
       </c>
       <c r="E15" s="0">
-        <v>47.010753968253965</v>
+        <v>45.959563492063488</v>
       </c>
       <c r="F15" s="0">
-        <v>43.518412698412696</v>
+        <v>40.857063492063489</v>
       </c>
     </row>
     <row r="16">
@@ -398,10 +402,10 @@
         <v>-106</v>
       </c>
       <c r="E16" s="0">
-        <v>45.271778656126486</v>
+        <v>44.238961195809026</v>
       </c>
       <c r="F16" s="0">
-        <v>44.390671936758885</v>
+        <v>42.376505270092217</v>
       </c>
     </row>
     <row r="17">
@@ -418,10 +422,10 @@
         <v>-106</v>
       </c>
       <c r="E17" s="0">
-        <v>43.81019920318726</v>
+        <v>43.465318250806305</v>
       </c>
       <c r="F17" s="0">
-        <v>45.164701195219145</v>
+        <v>42.599661512679461</v>
       </c>
     </row>
     <row r="18">
@@ -438,10 +442,10 @@
         <v>-106</v>
       </c>
       <c r="E18" s="0">
-        <v>43.928924302788843</v>
+        <v>42.87118620755075</v>
       </c>
       <c r="F18" s="0">
-        <v>45.657768924302786</v>
+        <v>42.976618130651993</v>
       </c>
     </row>
     <row r="19">
@@ -458,10 +462,10 @@
         <v>-106</v>
       </c>
       <c r="E19" s="0">
-        <v>44.188095238095229</v>
+        <v>43.1479365079365</v>
       </c>
       <c r="F19" s="0">
-        <v>45.618611111111093</v>
+        <v>42.961349206349183</v>
       </c>
     </row>
     <row r="20">
@@ -478,10 +482,10 @@
         <v>-106</v>
       </c>
       <c r="E20" s="0">
-        <v>44.770398406374511</v>
+        <v>43.683334914311018</v>
       </c>
       <c r="F20" s="0">
-        <v>45.427450199203207</v>
+        <v>42.722172421425427</v>
       </c>
     </row>
     <row r="21">
@@ -498,10 +502,10 @@
         <v>-106</v>
       </c>
       <c r="E21" s="0">
-        <v>43.612261904761901</v>
+        <v>42.565090590020866</v>
       </c>
       <c r="F21" s="0">
-        <v>45.444484126984122</v>
+        <v>42.802890501486118</v>
       </c>
     </row>
     <row r="22">
@@ -518,10 +522,10 @@
         <v>-106</v>
       </c>
       <c r="E22" s="0">
-        <v>44.129561752988053</v>
+        <v>42.652180800607098</v>
       </c>
       <c r="F22" s="0">
-        <v>45.61111553784859</v>
+        <v>43.32968696642002</v>
       </c>
     </row>
     <row r="23">
@@ -538,10 +542,10 @@
         <v>-106</v>
       </c>
       <c r="E23" s="0">
-        <v>44.86174603174603</v>
+        <v>43.344694238917349</v>
       </c>
       <c r="F23" s="0">
-        <v>45.916388888888875</v>
+        <v>43.216906817175726</v>
       </c>
     </row>
     <row r="24">
@@ -558,10 +562,10 @@
         <v>-106</v>
       </c>
       <c r="E24" s="0">
-        <v>44.088565737051802</v>
+        <v>42.603227091633478</v>
       </c>
       <c r="F24" s="0">
-        <v>45.776932270916348</v>
+        <v>42.656135458167341</v>
       </c>
     </row>
     <row r="25">
@@ -578,10 +582,10 @@
         <v>-106</v>
       </c>
       <c r="E25" s="0">
-        <v>43.916613545816737</v>
+        <v>43.081891323594512</v>
       </c>
       <c r="F25" s="0">
-        <v>45.502430278884454</v>
+        <v>43.18461281856699</v>
       </c>
     </row>
     <row r="26">
@@ -598,10 +602,10 @@
         <v>-106</v>
       </c>
       <c r="E26" s="0">
-        <v>44.052420634920615</v>
+        <v>43.424213463605874</v>
       </c>
       <c r="F26" s="0">
-        <v>45.967777777777791</v>
+        <v>44.282160247897309</v>
       </c>
     </row>
     <row r="27">
@@ -618,10 +622,10 @@
         <v>-106</v>
       </c>
       <c r="E27" s="0">
-        <v>44.103426294820729</v>
+        <v>43.424820717131482</v>
       </c>
       <c r="F27" s="0">
-        <v>45.877370517928291</v>
+        <v>44.385657370517933</v>
       </c>
     </row>
     <row r="28">
@@ -638,10 +642,10 @@
         <v>-106</v>
       </c>
       <c r="E28" s="0">
-        <v>44.298293650793646</v>
+        <v>44.143055555555549</v>
       </c>
       <c r="F28" s="0">
-        <v>45.84178571428572</v>
+        <v>44.435992063492066</v>
       </c>
     </row>
     <row r="29">
@@ -658,10 +662,10 @@
         <v>-106</v>
       </c>
       <c r="E29" s="0">
-        <v>44.383134920634923</v>
+        <v>43.723571428571432</v>
       </c>
       <c r="F29" s="0">
-        <v>45.930238095238089</v>
+        <v>44.466468253968252</v>
       </c>
     </row>
     <row r="30">
@@ -678,10 +682,10 @@
         <v>-106</v>
       </c>
       <c r="E30" s="0">
-        <v>44.360836653386436</v>
+        <v>44.173931891481672</v>
       </c>
       <c r="F30" s="0">
-        <v>45.468326693227112</v>
+        <v>44.875271137671554</v>
       </c>
     </row>
   </sheetData>
